--- a/biology/Biologie cellulaire et moléculaire/Liste_de_types_d'ARN/Liste_de_types_d'ARN.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_de_types_d'ARN/Liste_de_types_d'ARN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_types_d%27ARN</t>
+          <t>Liste_de_types_d'ARN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceci est une liste de différents types d'ARN observés dans la nature. Certaines catégories sont très larges, d'autres se limitent à un seul ARN.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_types_d%27ARN</t>
+          <t>Liste_de_types_d'ARN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Différents types d'ARN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans la cellule ou in vitro, il existe donc plusieurs types ou catégories d'ARN :
 ARNg : ARN génomique (ARN double brin qui constitue le génome de certains virus).
@@ -536,7 +550,7 @@
 petits ARN nucléaires ou ARNsn : ARN de la machinerie d'épissage ou splicéosome. Ils sont associés à des protéines au sein de particules ribonucléoprotéiques appelées snRNP ou parfois "snurps".
 petits ARN nucléolaires ou snoARN : ARN guides participant à l'incorporation de modifications chimiques dans d'autres ARN. Les deux principales modifications sont la méthylation de la position 2' du ribose et la pseudouridylation (transformation de l'uridine en pseudouridine).
 aptamères : ARN artificiels sélectionnés "in vitro" pour une propriété particulière de fixation d'un ligand ou de catalyse enzymatique.
-ARNnc (ARN de non-codage; voir aussi "ARNnm", ci-dessus). La plupart des ARN ne code pas une protéine (97 % selon Mattick[1]).  Certains de ces ARNnc ont des rôles de régulateur de processus métaboliques (voir ci-dessus). Une grande partie peut simplement être sans signification, mais elle pourrait également servir d'autres rôles tels que les codages postulés des éléments d'action; (voir après) :</t>
+ARNnc (ARN de non-codage; voir aussi "ARNnm", ci-dessus). La plupart des ARN ne code pas une protéine (97 % selon Mattick).  Certains de ces ARNnc ont des rôles de régulateur de processus métaboliques (voir ci-dessus). Une grande partie peut simplement être sans signification, mais elle pourrait également servir d'autres rôles tels que les codages postulés des éléments d'action; (voir après) :</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_types_d%27ARN</t>
+          <t>Liste_de_types_d'ARN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +578,9 @@
           <t>Confusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré son nom, l'ARN polymérase n'est pas un ARN mais une enzyme catalysant la synthèse d'ARN à partir d'ADN, de la même manière que l'ADN polymérase n'est pas un ADN mais l'enzyme qui catalyse la synthèse d'ADN à partir d'ADN. Il s'agit en effet, consacrées par l'usage, des transpositions en français de l'anglais « RNA polymerase » et « DNA polymerase » où l'on s'est contenté de remplacer chaque sigle anglais par son correspondant français, et de rajouter plus loin un accent, sans changer l'ordre des mots. Les traductions proprement dites seraient, respectivement, "polymérase à ARN" ou "polymérase-ARN dépendante" et "polymérase à ADN" ou "polymérase-ADN dépendante", ce qui conduirait sans confusion au sens indiqué.
 </t>
